--- a/Jogos_do_Dia/2023-01-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>4.02</v>
       </c>
       <c r="M2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="G3" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>3.64</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.13</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="N4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.08</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.27</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1144,7 +1144,7 @@
         <v>1.55</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE6" t="n">
         <v>1.27</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -1465,16 +1465,16 @@
         <v>3.89</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE9" t="n">
         <v>1.26</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1575,13 +1575,13 @@
         <v>3.46</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AD10" t="n">
         <v>1.18</v>
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.85</v>
@@ -1643,10 +1643,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1685,16 +1685,16 @@
         <v>3.29</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE11" t="n">
         <v>1.31</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1795,16 +1795,16 @@
         <v>2.71</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE12" t="n">
         <v>1.43</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1905,16 +1905,16 @@
         <v>3.16</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE13" t="n">
         <v>1.27</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2015,13 +2015,13 @@
         <v>3.35</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AD14" t="n">
         <v>1.22</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.86</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.12</v>
@@ -2083,10 +2083,10 @@
         <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="N15" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="G16" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G17" t="n">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.78</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2303,10 +2303,10 @@
         <v>4.22</v>
       </c>
       <c r="M17" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O17" t="n">
         <v>1.32</v>
@@ -2366,7 +2366,7 @@
         <v>3.1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.61</v>
+        <v>2.85</v>
       </c>
       <c r="G18" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="G19" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,7 +2523,7 @@
         <v>2.9</v>
       </c>
       <c r="M19" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N19" t="n">
         <v>1.67</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G21" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>1.07</v>
@@ -2743,10 +2743,10 @@
         <v>2.7</v>
       </c>
       <c r="M21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,7 +2853,7 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N22" t="n">
         <v>1.67</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="G23" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -2963,10 +2963,10 @@
         <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>1.08</v>
@@ -3073,10 +3073,10 @@
         <v>2.75</v>
       </c>
       <c r="M24" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="N24" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O24" t="n">
         <v>1.49</v>
@@ -3115,13 +3115,13 @@
         <v>3.07</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
         <v>1.08</v>
@@ -3293,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G27" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="H27" t="n">
-        <v>4.97</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3403,10 +3403,10 @@
         <v>3.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="N27" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3454,7 +3454,7 @@
         <v>3.85</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE27" t="n">
         <v>1.29</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3.53</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
         <v>1.09</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="G30" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="H30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
         <v>1.05</v>
@@ -3733,10 +3733,10 @@
         <v>3.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="O30" t="n">
         <v>1.39</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="I31" t="n">
         <v>1.04</v>
@@ -3843,10 +3843,10 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
         <v>1.05</v>
@@ -3953,10 +3953,10 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -4114,7 +4114,7 @@
         <v>3.35</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE33" t="n">
         <v>1.29</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="G34" t="n">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
         <v>1.06</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="G35" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O35" t="n">
         <v>1.4</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="G36" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
         <v>1.06</v>
@@ -4393,10 +4393,10 @@
         <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N36" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="H37" t="n">
-        <v>5.95</v>
+        <v>6.25</v>
       </c>
       <c r="I37" t="n">
         <v>1.04</v>
@@ -4503,10 +4503,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -4554,7 +4554,7 @@
         <v>3.35</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE37" t="n">
         <v>1.29</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4613,10 +4613,10 @@
         <v>3.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G39" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,10 +4723,10 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
         <v>1.06</v>
@@ -4833,10 +4833,10 @@
         <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N40" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="G41" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="I41" t="n">
         <v>1.05</v>
@@ -4943,10 +4943,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="G42" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I42" t="n">
         <v>1.07</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
         <v>1.08</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="I44" t="n">
         <v>1.05</v>
@@ -5273,10 +5273,10 @@
         <v>3.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N44" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O44" t="n">
         <v>1.39</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="G45" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
         <v>1.09</v>
@@ -5380,7 +5380,7 @@
         <v>1.5</v>
       </c>
       <c r="L45" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M45" t="n">
         <v>2.4</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.31</v>
+        <v>4.5</v>
       </c>
       <c r="G46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G47" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
         <v>1.09</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="G48" t="n">
-        <v>4.07</v>
+        <v>4.25</v>
       </c>
       <c r="H48" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
         <v>1.04</v>
@@ -5713,10 +5713,10 @@
         <v>3.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="N48" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G49" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
         <v>1.06</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
         <v>1.07</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
         <v>1.06</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G52" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
         <v>1.06</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>1.09</v>
@@ -6263,10 +6263,10 @@
         <v>2.5</v>
       </c>
       <c r="M53" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N53" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.52</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="G54" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="H54" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
         <v>1.07</v>
@@ -6373,10 +6373,10 @@
         <v>3.1</v>
       </c>
       <c r="M54" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="I55" t="n">
         <v>1.05</v>
@@ -6483,10 +6483,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
         <v>1.36</v>
@@ -6534,7 +6534,7 @@
         <v>3.85</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE55" t="n">
         <v>1.26</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="G56" t="n">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="I56" t="n">
         <v>1.05</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
         <v>1.04</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="G58" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="I58" t="n">
         <v>1.04</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G59" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
         <v>1.03</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="I60" t="n">
         <v>1.04</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G61" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="H61" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="I61" t="n">
         <v>1.03</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G62" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="I62" t="n">
         <v>1.05</v>
@@ -7253,10 +7253,10 @@
         <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="G63" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
         <v>1.02</v>
@@ -7363,10 +7363,10 @@
         <v>3.26</v>
       </c>
       <c r="M63" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="N63" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="G64" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="H64" t="n">
-        <v>4.76</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
         <v>1.05</v>
@@ -7473,10 +7473,10 @@
         <v>3.4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O64" t="n">
         <v>1.4</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3.66</v>
+        <v>3.55</v>
       </c>
       <c r="G65" t="n">
-        <v>3.69</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I65" t="n">
         <v>1.03</v>
@@ -7583,10 +7583,10 @@
         <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N65" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="O65" t="n">
         <v>1.29</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="G66" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="I66" t="n">
         <v>1.07</v>
@@ -7693,10 +7693,10 @@
         <v>3.25</v>
       </c>
       <c r="M66" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="O66" t="n">
         <v>1.44</v>
@@ -7785,10 +7785,10 @@
         <v>2.95</v>
       </c>
       <c r="G67" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I67" t="n">
         <v>1.06</v>
@@ -7803,10 +7803,10 @@
         <v>3.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="N67" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O67" t="n">
         <v>1.4</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="G68" t="n">
         <v>3.3</v>
       </c>
       <c r="H68" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I68" t="n">
         <v>1.08</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="G69" t="n">
         <v>2.95</v>
       </c>
       <c r="H69" t="n">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="I69" t="n">
         <v>1.07</v>
@@ -8023,7 +8023,7 @@
         <v>2.59</v>
       </c>
       <c r="M69" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N69" t="n">
         <v>1.5</v>
@@ -8086,7 +8086,7 @@
         <v>3.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="70">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I70" t="n">
         <v>1.11</v>
@@ -8133,10 +8133,10 @@
         <v>2.5</v>
       </c>
       <c r="M70" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N70" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O70" t="n">
         <v>1.5</v>
@@ -8225,10 +8225,10 @@
         <v>2.65</v>
       </c>
       <c r="G71" t="n">
-        <v>2.91</v>
+        <v>2.75</v>
       </c>
       <c r="H71" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="I71" t="n">
         <v>1.1</v>
@@ -8243,10 +8243,10 @@
         <v>2.5</v>
       </c>
       <c r="M71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.5</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="G72" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>1.07</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="G73" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H73" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
         <v>1.05</v>
@@ -8463,10 +8463,10 @@
         <v>2.9</v>
       </c>
       <c r="M73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N73" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
         <v>1.44</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G74" t="n">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="I74" t="n">
         <v>1.07</v>
@@ -8624,7 +8624,7 @@
         <v>2.1</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE74" t="n">
         <v>1.27</v>
@@ -8662,13 +8662,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="G75" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="H75" t="n">
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="I75" t="n">
         <v>1.1</v>
@@ -8683,10 +8683,10 @@
         <v>2.75</v>
       </c>
       <c r="M75" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N75" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="O75" t="n">
         <v>1.5</v>
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="G76" t="n">
-        <v>4.72</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>7.38</v>
+        <v>8.5</v>
       </c>
       <c r="I76" t="n">
         <v>1.05</v>
@@ -8793,10 +8793,10 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="N76" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
         <v>1.33</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>3.63</v>
       </c>
       <c r="H77" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="I77" t="n">
         <v>1.03</v>
@@ -8903,10 +8903,10 @@
         <v>3.61</v>
       </c>
       <c r="M77" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="N77" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O77" t="n">
         <v>1.34</v>
@@ -8966,7 +8966,7 @@
         <v>2.63</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="78">
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6.43</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>4.28</v>
+        <v>3.95</v>
       </c>
       <c r="H78" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="I78" t="n">
         <v>1.05</v>
@@ -9013,7 +9013,7 @@
         <v>3.4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
         <v>1.81</v>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G79" t="n">
-        <v>3.81</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="I79" t="n">
         <v>1.02</v>
@@ -9174,7 +9174,7 @@
         <v>3.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE79" t="n">
         <v>1.26</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="G80" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="H80" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="I80" t="n">
         <v>1.06</v>
@@ -9233,10 +9233,10 @@
         <v>3.25</v>
       </c>
       <c r="M80" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="O80" t="n">
         <v>1.36</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="G81" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I81" t="n">
         <v>1.14</v>
@@ -9337,10 +9337,10 @@
         <v>5</v>
       </c>
       <c r="K81" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="L81" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="M81" t="n">
         <v>2.59</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G82" t="n">
         <v>3.35</v>
       </c>
       <c r="H82" t="n">
-        <v>4.73</v>
+        <v>5.6</v>
       </c>
       <c r="I82" t="n">
         <v>1.1</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="G83" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H83" t="n">
-        <v>3.86</v>
+        <v>4.1</v>
       </c>
       <c r="I83" t="n">
         <v>1.1</v>
@@ -9557,10 +9557,10 @@
         <v>6.87</v>
       </c>
       <c r="K83" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="L83" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="M83" t="n">
         <v>2.43</v>
@@ -9652,13 +9652,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G84" t="n">
-        <v>4.17</v>
+        <v>4.25</v>
       </c>
       <c r="H84" t="n">
-        <v>4.57</v>
+        <v>4.25</v>
       </c>
       <c r="I84" t="n">
         <v>1.04</v>
@@ -9673,10 +9673,10 @@
         <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="N84" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O84" t="n">
         <v>1.33</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H85" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I85" t="n">
         <v>1.02</v>
@@ -9872,13 +9872,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H86" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="I86" t="n">
         <v>1.02</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="G87" t="n">
-        <v>4.56</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="I87" t="n">
         <v>1.03</v>
@@ -10003,10 +10003,10 @@
         <v>4.33</v>
       </c>
       <c r="M87" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="N87" t="n">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="O87" t="n">
         <v>1.3</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G88" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="I88" t="n">
         <v>1.08</v>
@@ -10286,7 +10286,7 @@
         <v>3.1</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="90">
@@ -10312,13 +10312,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="G90" t="n">
-        <v>5.94</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>9.51</v>
+        <v>9.5</v>
       </c>
       <c r="I90" t="n">
         <v>1.02</v>
@@ -10384,7 +10384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE90" t="n">
         <v>1.29</v>
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="G91" t="n">
-        <v>5.67</v>
+        <v>6.4</v>
       </c>
       <c r="H91" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="I91" t="n">
         <v>1.01</v>
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G92" t="n">
-        <v>3.96</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="I92" t="n">
         <v>1.03</v>
@@ -10642,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G93" t="n">
-        <v>6.44</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>12.61</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
         <v>1.02</v>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I94" t="n">
         <v>1.04</v>
@@ -10773,10 +10773,10 @@
         <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="N94" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O94" t="n">
         <v>1.33</v>
@@ -10862,10 +10862,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="G95" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="H95" t="n">
         <v>3.37</v>
@@ -10883,10 +10883,10 @@
         <v>2.62</v>
       </c>
       <c r="M95" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="N95" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O95" t="n">
         <v>1.5</v>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="G96" t="n">
         <v>3.2</v>
@@ -11082,13 +11082,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="G97" t="n">
-        <v>4.99</v>
+        <v>4.9</v>
       </c>
       <c r="H97" t="n">
-        <v>6.98</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
         <v>1.03</v>
